--- a/Data/RD_DK.xlsx
+++ b/Data/RD_DK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SV10BC/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PQ20KS/Documents/GitHub/RD_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFDA8C9-8C32-C24C-AA62-70AFE6F7817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EAF40-4934-7E4D-8A9E-9C7DB89E8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15800"/>
+    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023316101550411716859FORSK0136" sheetId="1" r:id="rId1"/>
@@ -20,38 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
-  <si>
-    <t>Erhvervslivets udgifter til egen FoU efter tid, udgifter til egen FoU</t>
-  </si>
-  <si>
-    <t>og branche - størrelsesgruppe - region mv</t>
-  </si>
-  <si>
-    <t>REGIONER I ALT</t>
-  </si>
-  <si>
-    <t>Region Hovedstaden</t>
-  </si>
-  <si>
-    <t>Region Sjælland</t>
-  </si>
-  <si>
-    <t>Region Syddanmark</t>
-  </si>
-  <si>
-    <t>Region Midtjylland</t>
-  </si>
-  <si>
-    <t>Region Nordjylland</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>Udgifter til egen FoU i alt</t>
-  </si>
-  <si>
     <t>2009</t>
   </si>
   <si>
@@ -94,31 +67,31 @@
     <t>2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Det senest offentliggjorte år er foreløbige tal. Erhvervslivets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoU-udgifter 2018 er et estimat for udviklingen i det samlede </t>
-  </si>
-  <si>
-    <t xml:space="preserve">erhvervsliv. Estimater kan ikke beregnes på mere detaljeret niveau.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definitionen af FoU er udvidet og præciseret fra og med 2017. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Præciseringen følger de internationale anbefalinger. Disse ændringer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">betyder, at udviklingen fra 2016 til 2017 skal tolkes med </t>
-  </si>
-  <si>
-    <t xml:space="preserve">forsigtighed. </t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Region_Hovedstaden</t>
+  </si>
+  <si>
+    <t>Region_Sjælland</t>
+  </si>
+  <si>
+    <t>Region_Syddanmark</t>
+  </si>
+  <si>
+    <t>Region_Midtjylland</t>
+  </si>
+  <si>
+    <t>Region_Nordjylland</t>
+  </si>
+  <si>
+    <t>Reg_ialt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -187,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,444 +455,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>34080</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23756</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1354</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3665</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4322</v>
+      </c>
+      <c r="G2" s="2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+      <c r="B3" s="2">
+        <v>36714</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24848</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1241</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3982</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5935</v>
+      </c>
+      <c r="G3" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>35413</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24148</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1578</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3407</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5617</v>
+      </c>
+      <c r="G4" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>36286</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24458</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1536</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3434</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6133</v>
+      </c>
+      <c r="G5" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B6" s="2">
+        <v>37045</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25036</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1447</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3746</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6018</v>
+      </c>
+      <c r="G6" s="2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="B7" s="2">
+        <v>36308</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24398</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1266</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4118</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5827</v>
+      </c>
+      <c r="G7" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B8" s="2">
+        <v>36815</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25010</v>
+      </c>
+      <c r="D8" s="2">
+        <v>968</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4260</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5808</v>
+      </c>
+      <c r="G8" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="2">
+        <v>39487</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27020</v>
+      </c>
+      <c r="D9" s="2">
+        <v>972</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4790</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5929</v>
+      </c>
+      <c r="G9" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="2">
+        <v>42418</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29095</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1073</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4601</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6404</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>34080</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23756</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1354</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3665</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4322</v>
-      </c>
-      <c r="H6" s="2">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="2">
+        <v>40757</v>
+      </c>
+      <c r="C11" s="2">
+        <v>27865</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1615</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3416</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6807</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36714</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24848</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1241</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3982</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5935</v>
-      </c>
-      <c r="H7" s="2">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="2">
+        <v>42187</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>35413</v>
-      </c>
-      <c r="D8" s="2">
-        <v>24148</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1578</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3407</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5617</v>
-      </c>
-      <c r="H8" s="2">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>36286</v>
-      </c>
-      <c r="D9" s="2">
-        <v>24458</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1536</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3434</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6133</v>
-      </c>
-      <c r="H9" s="2">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="2">
+        <v>41571</v>
+      </c>
+      <c r="C13" s="2">
+        <v>28270</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1539</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4210</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6721</v>
+      </c>
+      <c r="G13" s="2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>37045</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25036</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1447</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3746</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6018</v>
-      </c>
-      <c r="H10" s="2">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="2">
+        <v>42494</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29304</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1481</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4475</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6556</v>
+      </c>
+      <c r="G14" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36308</v>
-      </c>
-      <c r="D11" s="2">
-        <v>24398</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1266</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4118</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5827</v>
-      </c>
-      <c r="H11" s="2">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>36815</v>
-      </c>
-      <c r="D12" s="2">
-        <v>25010</v>
-      </c>
-      <c r="E12" s="2">
-        <v>968</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4260</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5808</v>
-      </c>
-      <c r="H12" s="2">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>39487</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27020</v>
-      </c>
-      <c r="E13" s="2">
-        <v>972</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4790</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5929</v>
-      </c>
-      <c r="H13" s="2">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42418</v>
-      </c>
-      <c r="D14" s="2">
-        <v>29095</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1073</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4601</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6404</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
+      <c r="B15" s="2">
+        <v>44602</v>
       </c>
       <c r="C15" s="2">
-        <v>40757</v>
+        <v>30621</v>
       </c>
       <c r="D15" s="2">
-        <v>27865</v>
+        <v>1634</v>
       </c>
       <c r="E15" s="2">
-        <v>1615</v>
+        <v>4814</v>
       </c>
       <c r="F15" s="2">
-        <v>3416</v>
+        <v>6491</v>
       </c>
       <c r="G15" s="2">
-        <v>6807</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2">
-        <v>42187</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>41571</v>
-      </c>
-      <c r="D17" s="2">
-        <v>28270</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1539</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4210</v>
-      </c>
-      <c r="G17" s="2">
-        <v>6721</v>
-      </c>
-      <c r="H17" s="2">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42494</v>
-      </c>
-      <c r="D18" s="2">
-        <v>29304</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1481</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4475</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6556</v>
-      </c>
-      <c r="H18" s="2">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44602</v>
-      </c>
-      <c r="D19" s="2">
-        <v>30621</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1634</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4814</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6491</v>
-      </c>
-      <c r="H19" s="2">
         <v>1041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/RD_DK.xlsx
+++ b/Data/RD_DK.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PQ20KS/Documents/GitHub/RD_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EAF40-4934-7E4D-8A9E-9C7DB89E8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810732FB-3AAE-D34B-8F01-7C86C47A1FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023316101550411716859FORSK0136" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
